--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-411028.3213685867</v>
+        <v>-414017.3629159484</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7788625.133342333</v>
+        <v>7757679.400320122</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13552345.2876875</v>
+        <v>13553493.25219078</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>261.7197106254976</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>263.3086052651604</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>21.10200467302534</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>43.60620160013919</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>125.8721928563316</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>366.872127809863</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>47.67973123751813</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>118.96213358952</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>148.2222349751186</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>90.28686697813563</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>101.717706569126</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>12.39397944700521</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>165.6040273698191</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>269.650265085915</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>25.60131861569366</v>
       </c>
       <c r="C16" t="n">
-        <v>163.7912123214095</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,7 +1859,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2056,7 +2056,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>181.1375494785995</v>
+        <v>225.0551139922736</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,13 +2245,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>7.601081015447265</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2479,16 +2479,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2530,10 +2530,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>270.0697021486465</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>62.1450161723026</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2609,7 +2609,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>173.6268892744757</v>
+        <v>103.4402035491654</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2770,13 +2770,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734099341</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>49.76588848769052</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>40.90116128765555</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983813</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.6240527793847</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.1631028869117</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D35" t="n">
-        <v>354.5732527365871</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.8205811881659</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.7662568576156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.7334871286617</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H35" t="n">
-        <v>283.4533031204485</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.50280171672377</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0872679533783</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U35" t="n">
-        <v>250.7991071035505</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V35" t="n">
-        <v>327.6424695860391</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.1311798333172</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.6213117943732</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.1281497719577</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.7221912978414</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>93.30736086638501</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.4322639930711</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.3442009078581</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.0709627069877</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.2286994743631</v>
+        <v>38.03682829123536</v>
       </c>
       <c r="T37" t="n">
-        <v>217.372205578666</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0756626643246</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V37" t="n">
-        <v>252.0278544397322</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.4132094524952</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.5998665049413</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.4748644679989</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.563092004545</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3594,10 +3594,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,13 +3630,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T39" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U39" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672664</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.151898483957</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035415</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545298</v>
+        <v>121.3390400318983</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082604</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>140.4471302624957</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>115.3590671772831</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.7096541297384</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.08582897641305</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437883</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>192.387071848091</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337496</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091572</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219202</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743663</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374239</v>
       </c>
     </row>
     <row r="41">
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,19 +3788,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3831,10 +3831,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U42" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672664</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.151898483957</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035415</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>121.3390400318983</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082604</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>140.4471302624961</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>115.3590671772831</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.70965412973801</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808248</v>
+        <v>42.08582897641305</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437883</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>192.387071848091</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337496</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091572</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219202</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743663</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374239</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672664</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.151898483957</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035415</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>121.3390400318983</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082604</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>140.4471302624961</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>115.3590671772831</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.70965412973838</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.08582897641304</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437883</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>192.387071848091</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337496</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091572</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219202</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743663</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374239</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1465.195303554219</v>
+        <v>1275.524362591491</v>
       </c>
       <c r="C2" t="n">
-        <v>1465.195303554219</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="D2" t="n">
-        <v>1465.195303554219</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E2" t="n">
-        <v>1079.407050955975</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F2" t="n">
-        <v>668.4211461663674</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>402.4528580197407</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>75.25813805574359</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>1838.661061815299</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X2" t="n">
-        <v>1465.195303554219</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y2" t="n">
-        <v>1465.195303554219</v>
+        <v>1662.124202655613</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,13 +4413,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>97.98965010333333</v>
       </c>
       <c r="W4" t="n">
-        <v>600.9853550586245</v>
+        <v>97.98965010333333</v>
       </c>
       <c r="X4" t="n">
-        <v>372.9958041606071</v>
+        <v>97.98965010333333</v>
       </c>
       <c r="Y4" t="n">
-        <v>372.9958041606071</v>
+        <v>97.98965010333333</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>995.9506728057374</v>
+        <v>898.8784838925781</v>
       </c>
       <c r="C5" t="n">
-        <v>995.9506728057374</v>
+        <v>898.8784838925781</v>
       </c>
       <c r="D5" t="n">
-        <v>995.9506728057374</v>
+        <v>898.8784838925781</v>
       </c>
       <c r="E5" t="n">
-        <v>995.9506728057374</v>
+        <v>513.0902312943338</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>102.1043265047262</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.555763042629</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>1386.090004781549</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y5" t="n">
-        <v>995.9506728057374</v>
+        <v>898.8784838925781</v>
       </c>
     </row>
     <row r="6">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>513.8405610245972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>513.8405610245972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>513.8405610245972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>513.8405610245972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>513.8405610245972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245972</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245972</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X7" t="n">
-        <v>513.8405610245972</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y7" t="n">
-        <v>513.8405610245972</v>
+        <v>184.0273259635867</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1241.158393318536</v>
+        <v>1365.680170394969</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>1365.680170394969</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>1007.414471788218</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>621.6262191899741</v>
       </c>
       <c r="F8" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W8" t="n">
-        <v>2001.223991643737</v>
+        <v>2125.74576872017</v>
       </c>
       <c r="X8" t="n">
-        <v>1627.758233382657</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="Y8" t="n">
-        <v>1627.758233382657</v>
+        <v>1752.280010459091</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4857,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500.8207968750362</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C10" t="n">
-        <v>500.8207968750362</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="D10" t="n">
-        <v>350.7041574627004</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="E10" t="n">
-        <v>202.7910638803073</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="F10" t="n">
-        <v>202.7910638803073</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="G10" t="n">
-        <v>202.7910638803073</v>
+        <v>156.6881399709968</v>
       </c>
       <c r="H10" t="n">
-        <v>202.7910638803073</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>66.46215297895557</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.8207968750362</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5036,34 +5036,34 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
-        <v>304.0396960664507</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>637.8590697562972</v>
+        <v>1034.340101969333</v>
       </c>
       <c r="L11" t="n">
-        <v>1088.893283004706</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M11" t="n">
-        <v>1622.425187676631</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N11" t="n">
-        <v>2602.177459903277</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
         <v>4667.761053946815</v>
@@ -5075,7 +5075,7 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
         <v>3524.421286991189</v>
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>877.1197344942216</v>
+        <v>730.2297869963112</v>
       </c>
       <c r="C13" t="n">
-        <v>708.1835515663147</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D13" t="n">
-        <v>558.0669121539789</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E13" t="n">
-        <v>410.1538185715858</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F13" t="n">
         <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1507.550329366009</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1507.550329366009</v>
+        <v>1683.969460967416</v>
       </c>
       <c r="V13" t="n">
-        <v>1507.550329366009</v>
+        <v>1429.284972761529</v>
       </c>
       <c r="W13" t="n">
-        <v>1507.550329366009</v>
+        <v>1139.867802724568</v>
       </c>
       <c r="X13" t="n">
-        <v>1279.560778467991</v>
+        <v>911.8782518265509</v>
       </c>
       <c r="Y13" t="n">
-        <v>1058.768199324461</v>
+        <v>911.8782518265509</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5261,49 +5261,49 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
         <v>4461.783306331037</v>
@@ -5312,16 +5312,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5331,64 +5331,64 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
         <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193591</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320246</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>873.6292205778394</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="C16" t="n">
-        <v>708.1835515663147</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="D16" t="n">
-        <v>558.0669121539789</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="E16" t="n">
-        <v>410.1538185715858</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5440,46 +5440,46 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927053</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892254</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598119</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518532</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952192</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104707</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862235</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862235</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1866.513008862235</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U16" t="n">
-        <v>1866.513008862235</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V16" t="n">
-        <v>1611.828520656348</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W16" t="n">
-        <v>1322.411350619387</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X16" t="n">
-        <v>1094.42179972137</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="Y16" t="n">
-        <v>873.6292205778394</v>
+        <v>680.5797464134954</v>
       </c>
     </row>
     <row r="17">
@@ -5489,55 +5489,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
         <v>4667.761053946815</v>
@@ -5549,16 +5549,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
@@ -5625,7 +5625,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>361.8228945579559</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5692,31 +5692,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104702</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104702</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931528</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501054</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.093287563029</v>
+        <v>1315.562568529061</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357142</v>
+        <v>1060.878080323174</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201816</v>
+        <v>771.460910286213</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>543.4713593881957</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>543.4713593881957</v>
       </c>
     </row>
     <row r="20">
@@ -5726,55 +5726,55 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>2877.428556330835</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
         <v>4667.761053946815</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5835,7 +5835,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5847,16 +5847,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5935,25 +5935,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208126</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838521</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858347</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y22" t="n">
-        <v>260.9043113423046</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6060,28 +6060,28 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
         <v>2436.460902902952</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>560.2704579839216</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>560.2704579839216</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6178,19 +6178,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>1480.11822289267</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>1190.701052855709</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>962.7115019576914</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>741.9189228141613</v>
       </c>
     </row>
     <row r="26">
@@ -6203,22 +6203,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6239,10 +6239,10 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3944.053400686433</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4338.827767043611</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
         <v>4719.034655862919</v>
@@ -6257,13 +6257,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
         <v>3150.95552873011</v>
@@ -6294,7 +6294,7 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468568</v>
@@ -6303,13 +6303,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>559.3002584566048</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F28" t="n">
         <v>95.56103444839442</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1780.96276986786</v>
+        <v>1762.027954772166</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437386</v>
+        <v>1540.261339341692</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1251.158472467335</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>1251.158472467335</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>961.7413024303746</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>961.7413024303746</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>740.9487232868445</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6437,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>750.1800661608916</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6643,13 +6643,13 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
         <v>1270.093287563029</v>
@@ -6677,40 +6677,40 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277731</v>
+        <v>451.8458144277727</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811482</v>
+        <v>1557.60335981148</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483404</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542189</v>
+        <v>2637.914081542186</v>
       </c>
       <c r="O32" t="n">
         <v>3482.142110232732</v>
@@ -6731,19 +6731,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6753,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390141</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193591</v>
+        <v>427.502502919361</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320232</v>
+        <v>794.200663232026</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.476988454342</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
@@ -6810,7 +6810,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>590.7492891710241</v>
+        <v>401.9038525862953</v>
       </c>
       <c r="C34" t="n">
-        <v>590.7492891710241</v>
+        <v>401.9038525862953</v>
       </c>
       <c r="D34" t="n">
-        <v>440.6326497586883</v>
+        <v>401.9038525862953</v>
       </c>
       <c r="E34" t="n">
-        <v>292.7195561762952</v>
+        <v>401.9038525862953</v>
       </c>
       <c r="F34" t="n">
-        <v>145.8296086783849</v>
+        <v>401.9038525862953</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>234.2010159610143</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.51300886223</v>
       </c>
       <c r="S34" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.51300886223</v>
       </c>
       <c r="T34" t="n">
-        <v>1644.746393431758</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U34" t="n">
-        <v>1355.643526557402</v>
+        <v>1355.6435265574</v>
       </c>
       <c r="V34" t="n">
-        <v>1100.959038351515</v>
+        <v>1100.959038351513</v>
       </c>
       <c r="W34" t="n">
-        <v>811.5418683145542</v>
+        <v>811.5418683145524</v>
       </c>
       <c r="X34" t="n">
-        <v>811.5418683145542</v>
+        <v>583.5523174165351</v>
       </c>
       <c r="Y34" t="n">
-        <v>590.7492891710241</v>
+        <v>583.5523174165351</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.564121551397</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.712502473708</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.557701729681</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.880346994159</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.0053400672751</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G35" t="n">
-        <v>380.1331308464047</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J35" t="n">
-        <v>373.3125385470849</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K35" t="n">
-        <v>842.9429223347668</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.462702840542</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.467264779579</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.752242696685</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O35" t="n">
-        <v>3603.614279155824</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P35" t="n">
-        <v>4151.920227843172</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q35" t="n">
-        <v>4564.749365221855</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S35" t="n">
-        <v>4605.476787028166</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T35" t="n">
-        <v>4404.378536570208</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.04610515248</v>
+        <v>4152.29766674607</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.094115671632</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.436358264241</v>
+        <v>3468.466124132385</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.081497865884</v>
+        <v>3095.000365871305</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.053063752796</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.6291563257736</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C36" t="n">
-        <v>769.1761270446466</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D36" t="n">
-        <v>620.2417173833953</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E36" t="n">
-        <v>461.0042623779398</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F36" t="n">
-        <v>314.4697044048247</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G36" t="n">
-        <v>178.6894541647542</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>142.676769632785</v>
       </c>
       <c r="K36" t="n">
-        <v>274.0087150847348</v>
+        <v>142.676769632785</v>
       </c>
       <c r="L36" t="n">
-        <v>764.7410479284862</v>
+        <v>142.676769632785</v>
       </c>
       <c r="M36" t="n">
-        <v>1356.759402180614</v>
+        <v>734.6951238849127</v>
       </c>
       <c r="N36" t="n">
-        <v>1356.759402180614</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O36" t="n">
-        <v>1903.635877180808</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P36" t="n">
-        <v>2323.219395606884</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.168964849488</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.875258751902</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.845757276272</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.69364904453</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.456292316328</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.604792110795</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.844493345842</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>496.9316385705114</v>
+        <v>707.7042115721531</v>
       </c>
       <c r="C37" t="n">
-        <v>496.9316385705114</v>
+        <v>538.7680286442462</v>
       </c>
       <c r="D37" t="n">
-        <v>496.9316385705114</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E37" t="n">
-        <v>402.6817791095165</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F37" t="n">
-        <v>402.6817791095165</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5784821468184</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J37" t="n">
-        <v>172.9074769327807</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K37" t="n">
-        <v>432.6448948985993</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L37" t="n">
-        <v>820.5154039769884</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.853687016703</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.658243803664</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.789391813949</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P37" t="n">
-        <v>2312.428517645408</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q37" t="n">
-        <v>2430.250342194098</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R37" t="n">
-        <v>2362.501895015323</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S37" t="n">
-        <v>2179.442602616976</v>
+        <v>2390.991460657679</v>
       </c>
       <c r="T37" t="n">
-        <v>1959.874718194081</v>
+        <v>2171.312678372061</v>
       </c>
       <c r="U37" t="n">
-        <v>1670.909402371531</v>
+        <v>1882.236464686788</v>
       </c>
       <c r="V37" t="n">
-        <v>1416.335812028367</v>
+        <v>1627.551976480901</v>
       </c>
       <c r="W37" t="n">
-        <v>1127.029539854129</v>
+        <v>1338.13480644394</v>
       </c>
       <c r="X37" t="n">
-        <v>899.150886818835</v>
+        <v>1110.145255545923</v>
       </c>
       <c r="Y37" t="n">
-        <v>678.4692055380281</v>
+        <v>889.3526764023928</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.29867689096</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>794.2588208963573</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>380.2757138127637</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>93.8483481516064</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>373.3442236507179</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>842.9746074383977</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1462.49438794417</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2183.498949883205</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2920.783927800308</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3654.445485610265</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4202.751434297611</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403616</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.29766674607</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132385</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871305</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>241.4963299034522</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>572.0050724668096</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1062.737405310559</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1654.755759562684</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>2276.851722962018</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>921.9831621891569</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>778.3953859427357</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>653.6271532118858</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>531.0624663109784</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>409.5209254945538</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>267.6551373506187</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705347</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296846</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>482.1471447887715</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>894.7529362604288</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693411</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873641</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277194</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501922</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.16428644388</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2585.653348083867</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2427.831564504283</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.50118890015</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1969.773381896363</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1740.437300371962</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1476.368537016487</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1273.727392799955</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337911</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>794.2588208963568</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>380.2757138127632</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>93.8483481516064</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>373.3442236507179</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>842.9746074383977</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1462.49438794417</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2183.498949883205</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2920.783927800308</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3603.645964259444</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4151.951912946789</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4515.534099052794</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.29766674607</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>142.6767696327952</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>734.6951238849206</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1356.791087284254</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1903.667562284447</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2323.251080710521</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>921.9831621891569</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>778.3953859427357</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>653.6271532118858</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>531.0624663109784</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>409.5209254945538</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>267.6551373506183</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705343</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296846</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>482.1471447887715</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>894.7529362604288</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693411</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873641</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277194</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501922</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.16428644388</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2585.653348083867</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2427.831564504283</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.50118890015</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1969.773381896363</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1740.437300371962</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1476.368537016487</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1273.727392799955</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337911</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963571</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>380.2757138127638</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160777</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>373.3442236507186</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>842.9746074383984</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1462.494387944171</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2183.498949883205</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2920.783927800308</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3603.645964259444</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4151.95191294679</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4515.534099052795</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>241.4963299034522</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>572.0050724668096</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1062.737405310559</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1654.755759562684</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1654.755759562684</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2201.632234562877</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>921.9831621891575</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>778.3953859427363</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>653.6271532118863</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>531.0624663109788</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>409.5209254945541</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>267.6551373506187</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705347</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>197.6744444296844</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380731</v>
+        <v>482.1471447887713</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>894.7529362604287</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693411</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873641</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277193</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501922</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.16428644388</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2585.653348083867</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2427.831564504284</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.501188900151</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1969.773381896363</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1740.437300371962</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1476.368537016487</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1273.727392799956</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337911</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,22 +8687,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>19.7975057161928</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>251.1867816683973</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>317.5146261106134</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476829</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9887,13 +9887,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>133.253057640026</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476826</v>
+        <v>344.7025836476865</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10598,13 +10598,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>51.31264782909057</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>49.74439522492548</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>51.31264782911273</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>51.31264782911305</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>51.31264782911214</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>103.5531811455099</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>46.13320124993209</v>
       </c>
       <c r="G2" t="n">
-        <v>150.4755647556346</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.3524204098396</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>53.94492190635015</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>16.56157311969787</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>154.2306615662436</v>
       </c>
       <c r="C16" t="n">
-        <v>3.455608777218373</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23908,7 +23908,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>105.0742887270134</v>
+        <v>61.15672421333926</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,13 +24133,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>138.8328816311219</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24175,7 +24175,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,16 +24367,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>16.14213605696636</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>189.9926271515254</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>16.14213605696617</v>
+        <v>86.32882178227645</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>116.2599197713377</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>103.8538536266652</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.137032214532</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.5056841341165</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>53.01681289608831</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.3112591388354</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>81.69478786031317</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>143.3016600672236</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25555,13 +25555,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>-3.552713678800501e-13</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>3.907985046680551e-13</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>-5.044853423896711e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1206063.535958183</v>
+        <v>1206153.0529133</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1152509.786695315</v>
+        <v>1152509.786695314</v>
       </c>
     </row>
     <row r="6">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1153866.371218123</v>
+        <v>1153795.579199101</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1173644.185846678</v>
+        <v>1174256.858861758</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1173644.185846678</v>
+        <v>1174256.858861758</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1173644.185846678</v>
+        <v>1174256.858861758</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>262945.7723456639</v>
+        <v>262966.1884933221</v>
       </c>
       <c r="C2" t="n">
+        <v>266838.5752058923</v>
+      </c>
+      <c r="D2" t="n">
         <v>266838.5752058924</v>
-      </c>
-      <c r="D2" t="n">
-        <v>266838.5752058923</v>
       </c>
       <c r="E2" t="n">
         <v>258103.1614765392</v>
       </c>
       <c r="F2" t="n">
+        <v>258103.1614765392</v>
+      </c>
+      <c r="G2" t="n">
         <v>258103.1614765391</v>
       </c>
-      <c r="G2" t="n">
-        <v>258103.1614765392</v>
-      </c>
       <c r="H2" t="n">
+        <v>258103.161476539</v>
+      </c>
+      <c r="I2" t="n">
         <v>258103.1614765391</v>
-      </c>
-      <c r="I2" t="n">
-        <v>258103.1614765389</v>
       </c>
       <c r="J2" t="n">
         <v>258103.1614765392</v>
       </c>
       <c r="K2" t="n">
-        <v>258103.1614765391</v>
+        <v>258103.1614765392</v>
       </c>
       <c r="L2" t="n">
-        <v>258103.1614765391</v>
+        <v>258103.1614765392</v>
       </c>
       <c r="M2" t="n">
-        <v>262192.3837111894</v>
+        <v>262171.9675635318</v>
       </c>
       <c r="N2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.575205892</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058924</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="P2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.575205892</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.25168002746068e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>312959.1464485549</v>
+        <v>312970.0160233577</v>
       </c>
       <c r="N3" t="n">
-        <v>26197.77792561408</v>
+        <v>20075.93809173373</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185370.0311484422</v>
+        <v>185405.8861173444</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="F4" t="n">
         <v>21619.60799709187</v>
@@ -26436,28 +26436,28 @@
         <v>21619.60799709187</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.6079970919</v>
       </c>
       <c r="M4" t="n">
-        <v>5156.962217674923</v>
+        <v>5069.915760662874</v>
       </c>
       <c r="N4" t="n">
-        <v>12448.50789975162</v>
+        <v>13327.39591959024</v>
       </c>
       <c r="O4" t="n">
-        <v>12448.50789975161</v>
+        <v>13327.39591959024</v>
       </c>
       <c r="P4" t="n">
-        <v>12448.50789975159</v>
+        <v>13327.39591959026</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371366</v>
@@ -26497,19 +26497,19 @@
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>100915.1886201729</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065312</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065312</v>
       </c>
       <c r="P5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065312</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-595251.2160807322</v>
+        <v>-595296.4424920731</v>
       </c>
       <c r="C6" t="n">
-        <v>-8227.099249946797</v>
+        <v>-8227.099249946856</v>
       </c>
       <c r="D6" t="n">
-        <v>-8227.099249946914</v>
+        <v>-8227.099249946827</v>
       </c>
       <c r="E6" t="n">
-        <v>-587277.378767673</v>
+        <v>-587344.574257899</v>
       </c>
       <c r="F6" t="n">
-        <v>140100.0352257335</v>
+        <v>140032.8397355079</v>
       </c>
       <c r="G6" t="n">
-        <v>140100.0352257336</v>
+        <v>140032.8397355078</v>
       </c>
       <c r="H6" t="n">
-        <v>140100.0352257336</v>
+        <v>140032.8397355077</v>
       </c>
       <c r="I6" t="n">
-        <v>140100.0352257334</v>
+        <v>140032.8397355078</v>
       </c>
       <c r="J6" t="n">
-        <v>-36323.18396685929</v>
+        <v>-36390.37945708504</v>
       </c>
       <c r="K6" t="n">
-        <v>140100.0352257335</v>
+        <v>140032.8397355078</v>
       </c>
       <c r="L6" t="n">
-        <v>140100.0352257332</v>
+        <v>140032.8397355083</v>
       </c>
       <c r="M6" t="n">
-        <v>-156838.9135752133</v>
+        <v>-156833.9006595917</v>
       </c>
       <c r="N6" t="n">
-        <v>125028.1735266111</v>
+        <v>130395.4966880368</v>
       </c>
       <c r="O6" t="n">
-        <v>151225.9514522254</v>
+        <v>150471.4347797706</v>
       </c>
       <c r="P6" t="n">
-        <v>151225.9514522253</v>
+        <v>150471.4347797705</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26765,19 +26765,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
         <v>1358.041048716386</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716382</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716382</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716382</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26820,16 +26820,16 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
     </row>
   </sheetData>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.17485860794385</v>
+        <v>25.09492261467089</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,13 +26987,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>268.2643481230871</v>
+        <v>268.2643481230882</v>
       </c>
       <c r="N3" t="n">
-        <v>9.93445162528792</v>
+        <v>-3.851935747959238e-12</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.8170791405323</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>360.7428444917794</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>130.8293115718359</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>136.2257785817981</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>160.6508054802594</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>40.00391793184843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>366.1044387832769</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>51.04847948014722</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>48.34766866953092</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,10 +27831,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27859,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>258.6538107665929</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27910,10 +27910,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>258.9541017392773</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>54.45318227266915</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>32.80597974153179</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.358561997638116e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28512,7 +28512,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>2.733694752047692e-12</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.1097888840958603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467086</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32333,7 +32333,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H32" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J32" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623196</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746416</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R32" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T32" t="n">
-        <v>19.17787942451121</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798532</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026462</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138783</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837927</v>
+        <v>609.647816683792</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905542</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H34" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J34" t="n">
-        <v>138.9375967297391</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P34" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.5562817895881</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R34" t="n">
-        <v>88.3612387071222</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112299</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33734,19 +33734,19 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>176.1592645264424</v>
       </c>
       <c r="K36" t="n">
-        <v>319.853612748867</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>634.2436048745725</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O36" t="n">
         <v>694.9967242426205</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>275.977002173581</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>471.688653684821</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745706</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504278</v>
       </c>
       <c r="N39" t="n">
-        <v>230.1272937575231</v>
+        <v>759.7214730927615</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>422.3544583169176</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>187.8760176396602</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504278</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927615</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>694.9967242426184</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982436</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286941</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,34 +34436,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>275.977002173581</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>471.688653684821</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745706</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504278</v>
       </c>
       <c r="N45" t="n">
-        <v>189.0011860883002</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>694.9967242426184</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>489.7119024980574</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,22 +35407,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>210.5845066849054</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>588.3780682237978</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35808,7 +35808,7 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721702009</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
         <v>347.6333793934838</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36060,7 +36060,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789197</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>869.8164615235249</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>852.755584535902</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36607,13 +36607,13 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>384.0473624437454</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>470.444344195426</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407865</v>
+        <v>359.8836161407861</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265655</v>
+        <v>661.3366991265649</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M32" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129117</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O32" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359052</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908547</v>
+        <v>720.560694390854</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636244</v>
+        <v>463.1092954636239</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152071</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597946</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340041</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004588</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306614</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443194</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701982</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226396</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789354</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37318,13 +37318,13 @@
         <v>744.73230092637</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870085</v>
+        <v>741.0722806160991</v>
       </c>
       <c r="P35" t="n">
         <v>553.844392613483</v>
       </c>
       <c r="Q35" t="n">
-        <v>416.9991286653367</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R35" t="n">
         <v>127.3573607845842</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>49.32163785977567</v>
       </c>
       <c r="K36" t="n">
-        <v>182.012173774508</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>495.6892250946983</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O36" t="n">
         <v>552.4004797981761</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.88971099475638</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K37" t="n">
-        <v>262.3610282483016</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L37" t="n">
-        <v>391.7883930084739</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M37" t="n">
-        <v>423.5740232724386</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N37" t="n">
-        <v>418.994501805012</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O37" t="n">
-        <v>370.8395434447318</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P37" t="n">
-        <v>293.5748745772318</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q37" t="n">
-        <v>119.0119439885757</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>741.0722806161184</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>127.3573607845831</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069143</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>333.847214710462</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946964</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284094</v>
       </c>
       <c r="N39" t="n">
-        <v>98.78558167418976</v>
+        <v>628.3797610094282</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>279.7582138724732</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>104.8748447253308</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>287.3461619788757</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>416.7735267390477</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>448.5591570030124</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355858</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>395.8246771753057</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078058</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>143.9970777191501</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870057</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>178.6700086136961</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>49.32163785978599</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284094</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094282</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>552.4004797981739</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>423.8217357839134</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>232.8901757426726</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>104.8748447253308</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>287.3461619788757</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>416.7735267390477</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>448.5591570030124</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355858</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>395.8246771753057</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078058</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>143.9970777191501</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870057</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>178.6700086136952</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>149.1393755069143</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>333.847214710462</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946964</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284094</v>
       </c>
       <c r="N45" t="n">
-        <v>57.65947400496688</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>552.4004797981739</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>355.7374950837272</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>104.8748447253308</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>287.3461619788757</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>416.7735267390477</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>448.5591570030124</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355858</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>395.8246771753057</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078058</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>143.9970777191501</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
